--- a/课堂派V1.6_ST测试用例.xlsx
+++ b/课堂派V1.6_ST测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="675" yWindow="270" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,15 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,12 +372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/课堂派V1.6_ST测试用例.xlsx
+++ b/课堂派V1.6_ST测试用例.xlsx
@@ -370,15 +370,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
